--- a/data_output/prism_passive/all_passive_out_emg_mean_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_mean_zero.xlsx
@@ -363,60 +363,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="O1">
         <v>16</v>
       </c>
-      <c r="D1">
+      <c r="P1">
+        <v>18</v>
+      </c>
+      <c r="Q1">
+        <v>19</v>
+      </c>
+      <c r="R1">
+        <v>20</v>
+      </c>
+      <c r="S1">
+        <v>21</v>
+      </c>
+      <c r="T1">
+        <v>22</v>
+      </c>
+      <c r="U1">
+        <v>24</v>
+      </c>
+      <c r="V1">
+        <v>25</v>
+      </c>
+      <c r="W1">
+        <v>26</v>
+      </c>
+      <c r="X1">
+        <v>28</v>
+      </c>
+      <c r="Y1">
+        <v>30</v>
+      </c>
+      <c r="Z1">
+        <v>31</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>2</v>
+      </c>
+      <c r="AC1">
+        <v>3</v>
+      </c>
+      <c r="AD1">
+        <v>4</v>
+      </c>
+      <c r="AE1">
+        <v>5</v>
+      </c>
+      <c r="AF1">
+        <v>6</v>
+      </c>
+      <c r="AG1">
+        <v>7</v>
+      </c>
+      <c r="AH1">
+        <v>8</v>
+      </c>
+      <c r="AI1">
+        <v>9</v>
+      </c>
+      <c r="AJ1">
+        <v>10</v>
+      </c>
+      <c r="AK1">
+        <v>11</v>
+      </c>
+      <c r="AL1">
+        <v>13</v>
+      </c>
+      <c r="AM1">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="AN1">
         <v>16</v>
       </c>
+      <c r="AO1">
+        <v>18</v>
+      </c>
+      <c r="AP1">
+        <v>19</v>
+      </c>
+      <c r="AQ1">
+        <v>20</v>
+      </c>
+      <c r="AR1">
+        <v>21</v>
+      </c>
+      <c r="AS1">
+        <v>22</v>
+      </c>
+      <c r="AT1">
+        <v>24</v>
+      </c>
+      <c r="AU1">
+        <v>25</v>
+      </c>
+      <c r="AV1">
+        <v>26</v>
+      </c>
+      <c r="AW1">
+        <v>28</v>
+      </c>
+      <c r="AX1">
+        <v>30</v>
+      </c>
+      <c r="AY1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.46303487187280085</v>
+      </c>
       <c r="C2">
+        <v>0.30329331144200594</v>
+      </c>
+      <c r="D2">
+        <v>2.6639766261014057</v>
+      </c>
+      <c r="E2">
+        <v>1.8190690491351573</v>
+      </c>
+      <c r="F2">
+        <v>1.7325935241485089</v>
+      </c>
+      <c r="G2">
+        <v>3.5671901857387289</v>
+      </c>
+      <c r="H2">
+        <v>4.9684565160437577</v>
+      </c>
+      <c r="I2">
+        <v>8.14615082816635E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.8030892240178851</v>
+      </c>
+      <c r="K2">
+        <v>2.2833812138181027</v>
+      </c>
+      <c r="L2">
+        <v>0.6041686973873267</v>
+      </c>
+      <c r="M2">
+        <v>1.6242375591237546</v>
+      </c>
+      <c r="O2">
         <v>2.2705065750131443</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.36258691882818739</v>
+      </c>
+      <c r="Q2">
+        <v>1.3085776626211085</v>
+      </c>
+      <c r="R2">
+        <v>2.838409442971221</v>
+      </c>
+      <c r="S2">
+        <v>1.6217425114572828</v>
+      </c>
+      <c r="T2">
+        <v>1.9908711516393238</v>
+      </c>
+      <c r="U2">
+        <v>1.1304517721263709</v>
+      </c>
+      <c r="V2">
+        <v>6.6521582109519253</v>
+      </c>
+      <c r="W2">
+        <v>0.98587269094637187</v>
+      </c>
+      <c r="X2">
+        <v>0.21288776599773609</v>
+      </c>
+      <c r="Y2">
+        <v>0.3885878608544972</v>
+      </c>
+      <c r="AA2">
+        <v>1.0667423091444808</v>
+      </c>
+      <c r="AB2">
+        <v>0.26427124562650411</v>
+      </c>
+      <c r="AC2">
+        <v>3.1806751658741104</v>
+      </c>
+      <c r="AD2">
+        <v>0.55064692133274495</v>
+      </c>
+      <c r="AE2">
+        <v>0.83957675925913844</v>
+      </c>
+      <c r="AF2">
+        <v>2.9147950203007524</v>
+      </c>
+      <c r="AG2">
+        <v>3.7539620772045441</v>
+      </c>
+      <c r="AH2">
+        <v>0.4645235291182197</v>
+      </c>
+      <c r="AI2">
+        <v>4.2900818215404479</v>
+      </c>
+      <c r="AJ2">
+        <v>3.1047462643585142</v>
+      </c>
+      <c r="AK2">
+        <v>1.1474128100752465</v>
+      </c>
+      <c r="AL2">
+        <v>0.88694262130642365</v>
+      </c>
+      <c r="AM2">
         <v>0.15784144093705965</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>2.4446446910023685</v>
       </c>
+      <c r="AO2">
+        <v>1.6452484145507391</v>
+      </c>
+      <c r="AP2">
+        <v>0.84085838759649711</v>
+      </c>
+      <c r="AQ2">
+        <v>1.9085869083564984</v>
+      </c>
+      <c r="AR2">
+        <v>0.66541633954587054</v>
+      </c>
+      <c r="AS2">
+        <v>0.525382026256343</v>
+      </c>
+      <c r="AT2">
+        <v>0.94439123640197253</v>
+      </c>
+      <c r="AU2">
+        <v>3.8462768308389723</v>
+      </c>
+      <c r="AV2">
+        <v>0.50872983548208606</v>
+      </c>
+      <c r="AW2">
+        <v>0.30302095086482006</v>
+      </c>
+      <c r="AX2">
+        <v>0.27578995924529376</v>
+      </c>
+      <c r="AY2">
+        <v>1.1971588279427847</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.0619287822760377</v>
+      </c>
+      <c r="C3">
+        <v>0.70464478427666755</v>
+      </c>
+      <c r="D3">
+        <v>1.4647895927351999</v>
+      </c>
+      <c r="E3">
+        <v>2.5196453516801447</v>
+      </c>
+      <c r="F3">
+        <v>1.1129005081022061</v>
+      </c>
+      <c r="G3">
+        <v>2.5977269054373893</v>
+      </c>
+      <c r="H3">
+        <v>5.0246088972115688</v>
+      </c>
+      <c r="I3">
+        <v>2.7366720504047977</v>
+      </c>
+      <c r="J3">
+        <v>2.2508459877367515</v>
+      </c>
+      <c r="K3">
+        <v>2.2790858272416767</v>
+      </c>
+      <c r="L3">
+        <v>0.87399796639155058</v>
+      </c>
+      <c r="M3">
+        <v>1.0193260789975362</v>
+      </c>
+      <c r="N3">
         <v>0.19442099147648081</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>2.4413010461533484</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.5713441052903997</v>
+      </c>
+      <c r="Q3">
+        <v>0.64501937795596309</v>
+      </c>
+      <c r="R3">
+        <v>3.1102767073236084</v>
+      </c>
+      <c r="S3">
+        <v>0.69223058229798751</v>
+      </c>
+      <c r="T3">
+        <v>0.5386962555088205</v>
+      </c>
+      <c r="U3">
+        <v>3.6059374802741089</v>
+      </c>
+      <c r="V3">
+        <v>2.635826576837589</v>
+      </c>
+      <c r="W3">
+        <v>0.12693353358000278</v>
+      </c>
+      <c r="X3">
+        <v>0.26734330541725998</v>
+      </c>
+      <c r="Y3">
+        <v>0.52794837146344087</v>
+      </c>
+      <c r="AA3">
+        <v>1.2437856770943827</v>
+      </c>
+      <c r="AB3">
+        <v>2.635605717788541</v>
+      </c>
+      <c r="AC3">
+        <v>2.2514601084336374</v>
+      </c>
+      <c r="AD3">
+        <v>1.0546411153965691</v>
+      </c>
+      <c r="AE3">
+        <v>1.2627638735869446</v>
+      </c>
+      <c r="AF3">
+        <v>0.75038488469890463</v>
+      </c>
+      <c r="AG3">
+        <v>1.0487267159077283</v>
+      </c>
+      <c r="AH3">
+        <v>0.1978017127147933</v>
+      </c>
+      <c r="AI3">
+        <v>2.1712871305003434</v>
+      </c>
+      <c r="AJ3">
+        <v>2.8062804014021516</v>
+      </c>
+      <c r="AK3">
+        <v>1.4147325785493561</v>
+      </c>
+      <c r="AL3">
+        <v>0.77492538862725591</v>
+      </c>
+      <c r="AM3">
         <v>0.23582891681377724</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>1.5605870086951137</v>
+      </c>
+      <c r="AO3">
+        <v>0.54502381253634002</v>
+      </c>
+      <c r="AP3">
+        <v>0.20827285802321674</v>
+      </c>
+      <c r="AQ3">
+        <v>0.63568639759013956</v>
+      </c>
+      <c r="AR3">
+        <v>0.89839221563736082</v>
+      </c>
+      <c r="AS3">
+        <v>0.50233220881049001</v>
+      </c>
+      <c r="AT3">
+        <v>1.4628618099618012</v>
+      </c>
+      <c r="AU3">
+        <v>3.3826402663683743</v>
+      </c>
+      <c r="AV3">
+        <v>0.78209657941113686</v>
+      </c>
+      <c r="AW3">
+        <v>0.33139339334868018</v>
+      </c>
+      <c r="AX3">
+        <v>0.63384731331194866</v>
+      </c>
+      <c r="AY3">
+        <v>1.3409663787991708</v>
       </c>
     </row>
   </sheetData>
